--- a/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,1224 +512,1662 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>57.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.27</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.35</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2792</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4217</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001570</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>48.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>006573</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>人保行业轮动混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>84.27</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2.84</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>48.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005463</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华多元收益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001580</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005464</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华多元收益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>006574</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>人保行业轮动混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>84.27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2.84</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005463</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华多元收益定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005464</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华多元收益定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>450009</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国富中小盘股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>960030</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合H</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008895</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信量化对冲策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>56.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>18.15</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>240005</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华宝多策略增长</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001403</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商国企改革主题混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>070027</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实周期优选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>460002</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001335</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方利众灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>23.44</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001505</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方利众灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>23.44</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001566</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方利达灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>24.09</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001567</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方利达灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>24.09</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001570</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>南方利安灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>24.98</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001580</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方利安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>24.98</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007569</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方安福混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>24.53</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007657</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东方红中证竞争力指数A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007658</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>东方红中证竞争力指数C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003161</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>南方安泰混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>21.81</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003476</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>南方安颐混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>23.50</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005059</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>南方安福混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>24.53</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002453</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002454</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011473</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>工银瑞信战略转型主题股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>004951</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>申万菱信价值优利混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>515500</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>海富通中证长三角领先ETF</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>007415</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>南方致远混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>007416</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>南方致远混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>004696</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>东兴量化优享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009296</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>南方誉慧一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>27.04</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009297</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>南方誉慧一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>27.04</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>005674</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>诺德消费升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>88.12</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005901</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>005902</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>008443</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>九泰动态策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>48.99</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>008444</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>九泰动态策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>48.99</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>000646</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>005444</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>51.25</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>007827</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>005041</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>人保研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>84.48</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>005042</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>人保研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>84.48</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1729,7 +2177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1750,15 +2198,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000991</t>
+          <t>450009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信战略转型主题股票A</t>
+          <t>国富中小盘股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>49.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011473</t>
+          <t>163412</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信战略转型主题股票C</t>
+          <t>兴全轻资产混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>69.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009296</t>
+          <t>000991</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方誉慧一年持有期混合A</t>
+          <t>工银瑞信战略转型主题股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.82</t>
+          <t>46.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9773</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009297</t>
+          <t>163407</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方誉慧一年持有期混合C</t>
+          <t>兴全沪深300指数增强(LOF)A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.82</t>
+          <t>51.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3330</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003912</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>46.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6184</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003913</t>
+          <t>070027</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合C</t>
+          <t>嘉实周期优选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4918</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信多因子量化股票</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.48</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4711</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004696</t>
+          <t>519170</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东兴量化优享灵活配置混合</t>
+          <t>浦银安盛增长动力灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>376510</t>
+          <t>009296</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上投摩根大盘蓝筹股票</t>
+          <t>南方誉慧一年持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.91</t>
+          <t>40.22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>450009</t>
+          <t>007657</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国富中小盘股票</t>
+          <t>东方红中证竞争力指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86.20</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005270</t>
+          <t>005392</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太平改革红利精选灵活配置混合</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005901</t>
+          <t>009911</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>诺安汇利灵活配置混合A</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005902</t>
+          <t>010006</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>诺安汇利灵活配置混合C</t>
+          <t>南方誉鼎一年持有期混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000646</t>
+          <t>460002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华润元大量化优选混合A</t>
+          <t>华泰柏瑞积极成长混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2162,26 +2760,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007827</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华润元大量化优选混合C</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000507</t>
+          <t>003295</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合A</t>
+          <t>南方安裕混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000508</t>
+          <t>002160</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合B</t>
+          <t>南方转型驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -2246,26 +2874,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007243</t>
+          <t>007415</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安信核心竞争力灵活配置混合A</t>
+          <t>南方致远混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.20</t>
+          <t>10.87</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2274,25 +2912,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007244</t>
+          <t>163503</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>安信核心竞争力灵活配置混合C</t>
+          <t>天治核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.20</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>163407</t>
+          <t>009499</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>兴全沪深300指数增强(LOF)A</t>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007230</t>
+          <t>001468</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>兴全沪深300指数增强(LOF)C</t>
+          <t>广发改革先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008443</t>
+          <t>376510</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>九泰动态策略灵活配置混合A</t>
+          <t>上投摩根大盘蓝筹股票</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>49.86</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008444</t>
+          <t>000646</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>九泰动态策略灵活配置混合C</t>
+          <t>华润元大量化优选混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>49.86</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2414,26 +3102,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007251</t>
+          <t>006586</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发睿享稳健增利混合</t>
+          <t>南方安裕混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>31.96</t>
+          <t>19.30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2442,26 +3140,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>004607</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>长信利尚一年定期开放混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>162205</t>
+          <t>001173</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>泰达宏利风险预算混合</t>
+          <t>中欧瑾和灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>28.61</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>66.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2526,26 +3254,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>000326</t>
+          <t>000524</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>南方中小盘成长股票</t>
+          <t>上投摩根民生需求股票</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>87.93</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2554,26 +3292,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>000327</t>
+          <t>001335</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>南方潜力新蓝筹混合</t>
+          <t>南方利众灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>89.03</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>3</v>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -2582,26 +3330,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>006225</t>
+          <t>009297</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>人保量化基本面混合A</t>
+          <t>南方誉慧一年持有期混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>85.21</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -2610,26 +3368,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>006226</t>
+          <t>161611</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>人保量化基本面混合C</t>
+          <t>融通内需驱动混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>85.21</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -2638,26 +3406,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>010006</t>
+          <t>162205</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>南方誉鼎一年持有期混合A</t>
+          <t>泰达宏利风险预算混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22.40</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>8</v>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2666,26 +3444,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>010007</t>
+          <t>003476</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>南方誉鼎一年持有期混合C</t>
+          <t>南方安颐混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>22.40</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -2694,25 +3482,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>006251</t>
+          <t>005059</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>银华兴盛股票</t>
+          <t>南方安福混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>82.30</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2722,26 +3520,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>000524</t>
+          <t>001566</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上投摩根民生需求股票</t>
+          <t>南方利达灵活配置混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2750,26 +3558,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>290008</t>
+          <t>000326</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>泰信发展主题混合</t>
+          <t>南方中小盘成长股票</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>85.30</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2778,26 +3596,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>460002</t>
+          <t>001570</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合A</t>
+          <t>南方利安灵活配置混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2806,26 +3634,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>960030</t>
+          <t>002768</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合H</t>
+          <t>华安安进灵活配置混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>10</v>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2834,26 +3672,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>501002</t>
+          <t>007251</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>长信价值优选混合</t>
+          <t>广发睿享稳健增利混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2862,26 +3710,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>001173</t>
+          <t>010007</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中欧瑾和灵活配置混合 - A</t>
+          <t>南方誉鼎一年持有期混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>66.40</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>6</v>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2890,26 +3748,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>001174</t>
+          <t>515500</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中欧瑾和灵活配置混合 - C</t>
+          <t>海富通中证长三角领先ETF</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>66.40</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>6</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2928,15 +3796,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>89.63</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>3.25</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2946,25 +3824,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>007389</t>
+          <t>008443</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上投摩根研究驱动股票C</t>
+          <t>九泰动态策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2974,26 +3862,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>007415</t>
+          <t>000327</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>南方致远混合A</t>
+          <t>南方潜力新蓝筹混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>22.98</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>2</v>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -3002,26 +3900,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>007416</t>
+          <t>001808</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>南方致远混合C</t>
+          <t>银华互联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>22.98</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -3030,26 +3938,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>510890</t>
+          <t>005041</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>兴业上证红利低波动ETF</t>
+          <t>人保研究精选混合A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>96.60</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>6</v>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -3058,26 +3976,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>007230</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>兴全沪深300指数增强(LOF)C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>7</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -3086,26 +4014,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>001335</t>
+          <t>006251</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>南方利众灵活配置混合A</t>
+          <t>银华兴盛股票</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>8</v>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -3114,26 +4052,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>001505</t>
+          <t>007658</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>南方利众灵活配置混合C</t>
+          <t>东方红中证竞争力指数C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>8</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -3142,26 +4090,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>000507</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>泰达宏利宏达混合A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>8</v>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -3170,26 +4128,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>001468</t>
+          <t>519656</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>广发改革先锋灵活配置混合</t>
+          <t>银河灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>7</v>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -3198,26 +4166,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>515500</t>
+          <t>011473</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海富通中证长三角领先ETF</t>
+          <t>工银瑞信战略转型主题股票C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>2</v>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -3226,26 +4204,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>001482</t>
+          <t>001536</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上投摩根新兴服务股票</t>
+          <t>南方君选灵活配置混合</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>84.24</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>9</v>
+          <t>43.26</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -3254,26 +4242,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>007416</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>南方致远混合C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>8</v>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -3282,26 +4280,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>001536</t>
+          <t>501002</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>南方君选灵活配置混合</t>
+          <t>长信价值优选混合</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>43.26</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>8</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3310,25 +4318,35 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>001566</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>南方利达灵活配置混合A</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3338,26 +4356,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>001567</t>
+          <t>001505</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>南方利达灵活配置混合C</t>
+          <t>南方利众灵活配置混合C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>9</v>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -3366,26 +4394,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>001570</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>南方利安灵活配置混合A</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>24.20</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>8</v>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -3394,26 +4432,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>001580</t>
+          <t>006225</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>南方利安灵活配置混合C</t>
+          <t>人保量化基本面混合A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>24.20</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>8</v>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3422,26 +4470,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>002288</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>中银稳进策略灵活配置混合</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>9</v>
+          <t>34.30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -3460,15 +4518,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>91.50</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>2.80</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3478,26 +4546,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>519170</t>
+          <t>009755</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>浦银安盛增长动力灵活配置混合</t>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>4</v>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -3506,26 +4584,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>519657</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>银河灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>57.89</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>10</v>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -3534,26 +4622,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>001808</t>
+          <t>007569</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>银华互联网主题灵活配置混合</t>
+          <t>南方安福混合C</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>5</v>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -3562,26 +4660,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>519656</t>
+          <t>001482</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - A</t>
+          <t>上投摩根新兴服务股票</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>58.77</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>2</v>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -3590,26 +4698,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>519657</t>
+          <t>290008</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - C</t>
+          <t>泰信发展主题混合</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>58.77</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>2</v>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3618,26 +4736,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>002159</t>
+          <t>008444</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东吴国企改革主题灵活配置混合</t>
+          <t>九泰动态策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>7</v>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -3646,26 +4774,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>002160</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>南方转型驱动灵活配置混合</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>87.50</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>4</v>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -3674,25 +4812,35 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>002288</t>
+          <t>510890</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中银稳进策略灵活配置混合</t>
+          <t>兴业上证红利低波动ETF</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>34.30</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3702,26 +4850,36 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>161611</t>
+          <t>003912</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>融通内需驱动混合</t>
+          <t>泰达宏利启富灵活配置混合A</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>73.22</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>8</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -3730,26 +4888,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>730001</t>
+          <t>000508</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>方正富邦创新动力混合A</t>
+          <t>泰达宏利宏达混合B</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>75.68</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>6</v>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -3758,26 +4926,36 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>007046</t>
+          <t>005901</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>方正富邦创新动力混合C</t>
+          <t>诺安汇利灵活配置混合A</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>75.68</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>6</v>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3786,26 +4964,36 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>005041</t>
+          <t>001580</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>人保研究精选混合A</t>
+          <t>南方利安灵活配置混合C</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>84.34</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>5</v>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -3814,26 +5002,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>163412</t>
+          <t>002159</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>兴全轻资产混合(LOF)</t>
+          <t>东吴国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>84.34</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>5</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -3842,26 +5040,36 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>005059</t>
+          <t>001567</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>南方安福混合A</t>
+          <t>南方利达灵活配置混合C</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>21.82</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>7</v>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -3870,26 +5078,36 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>007569</t>
+          <t>730001</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>南方安福混合C</t>
+          <t>方正富邦创新动力混合A</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>21.82</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>7</v>
+          <t>75.68</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -3898,26 +5116,36 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>002453</t>
+          <t>007389</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合A</t>
+          <t>上投摩根研究驱动股票C</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>79.89</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>2</v>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -3926,25 +5154,35 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>002454</t>
+          <t>002453</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合C</t>
+          <t>九泰久稳灵活配置混合A</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>79.89</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>4.98</t>
         </is>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3954,26 +5192,36 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>002654</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>上投摩根策略精选灵活配置混合</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>60.72</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>9</v>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -3982,26 +5230,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>005392</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>85.96</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>8</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="82">
@@ -4010,26 +5268,36 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>009911</t>
+          <t>002952</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+          <t>建信多因子量化股票</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>85.96</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>8</v>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -4038,26 +5306,36 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>002654</t>
+          <t>007243</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>上投摩根策略精选灵活配置混合</t>
+          <t>安信核心竞争力灵活配置混合A</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>79.33</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>7</v>
+          <t>52.20</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -4066,26 +5344,36 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>002768</t>
+          <t>007827</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>华安安进灵活配置混合</t>
+          <t>华润元大量化优选混合C</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>20.17</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>3</v>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="85">
@@ -4094,26 +5382,36 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>007657</t>
+          <t>004696</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>东方红中证竞争力指数A</t>
+          <t>东兴量化优享灵活配置混合</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>6</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4122,26 +5420,36 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>007658</t>
+          <t>005902</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>东方红中证竞争力指数C</t>
+          <t>诺安汇利灵活配置混合C</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>6</v>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -4150,26 +5458,36 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>003295</t>
+          <t>002454</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>南方安裕混合A</t>
+          <t>九泰久稳灵活配置混合C</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>8</v>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -4178,26 +5496,36 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>006586</t>
+          <t>003913</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>南方安裕混合C</t>
+          <t>泰达宏利启富灵活配置混合C</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>8</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -4206,26 +5534,36 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>003476</t>
+          <t>007046</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>南方安颐混合</t>
+          <t>方正富邦创新动力混合C</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>7</v>
+          <t>75.68</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -4234,26 +5572,36 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>004607</t>
+          <t>007244</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>长信利尚一年定期开放混合</t>
+          <t>安信核心竞争力灵活配置混合C</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>26.48</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>3</v>
+          <t>52.20</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -4262,25 +5610,35 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>009499</t>
+          <t>001174</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合A</t>
+          <t>中欧瑾和灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>29.62</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
+          <t>66.40</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4290,26 +5648,30 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>009755</t>
+          <t>006226</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>29.62</t>
-        </is>
-      </c>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>6</v>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -4318,25 +5680,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>163503</t>
+          <t>960030</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>天治核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5656,7 +5657,6 @@
           <t>人保量化基本面混合C</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>85.21</t>
@@ -5688,7 +5688,6 @@
           <t>华泰柏瑞积极成长混合H</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>74.75</t>
@@ -5704,6 +5703,3520 @@
       </c>
       <c r="H93" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8488</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1948</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8145</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6981</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6459</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>51.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3862</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2324</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6676</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5938</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5382</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4312</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4089</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>206003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华信用增利债券 - A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>45.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001570</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001580</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25.90</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>206004</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华信用增利债券 - B</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9222,4 +9223,2606 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8869</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5610</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5379</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1938</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>870005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0114</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9970</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>47.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8791</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5115</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>56.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5067</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3542</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>32.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>872021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001570</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001580</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>46.50</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>37.89</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>46.50</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11825,4 +11826,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>91</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>92</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11834,7 +11835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11845,17 +11846,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11865,14 +11886,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>67</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.3</v>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8695</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -11881,14 +11924,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>91</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.97</v>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7932</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -11897,14 +11962,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>92</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.32</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5458</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -11913,13 +12000,1937 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9871</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8395</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7521</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4712</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4246</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>57.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4059</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3650</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>96.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>91</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>92</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>44</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>9.029999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13829,7 +13830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13840,17 +13841,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13860,14 +13881,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>51</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.73</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2456</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -13876,14 +13919,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.3</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -13892,14 +13957,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>91</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.97</v>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9608</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -13908,14 +13995,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>92</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.32</v>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -13924,13 +14033,4913 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4817</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3678</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>870005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2138</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9871</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6625</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6625</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5846</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5355</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5217</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4721</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>47.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4482</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4222</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>60.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4205</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3071</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3070</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2080</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>38.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>872021</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>39.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005530</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006021</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013029</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001362</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005323</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>33.06</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>39.06</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013030</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001379</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005280</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>32.86</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>161811</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>银华沪深300指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005324</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010556</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇添富沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>130</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>91</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>92</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>44</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9.029999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18822,7 +18823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18833,17 +18834,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18853,14 +18874,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>130</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.6</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4569</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -18869,14 +18912,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.73</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7208</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -18885,14 +18950,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.3</v>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -18901,14 +18988,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>91</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.97</v>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6081</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -18917,14 +19026,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>92</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.32</v>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5047</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -18933,13 +19064,2685 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4927</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>870005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2659</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9728</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6463</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6256</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6250</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5573</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4699</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2978</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>53.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>53.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>872021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票H</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004218</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005323</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001765</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源嘉鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014021</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007502</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001770</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源嘉鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005324</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>130</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>91</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>92</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>44</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9.029999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>23.76</v>
+        <v>29.72</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>29.6</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="D4" t="n">
-        <v>14.73</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
-        <v>18.3</v>
+        <v>14.73</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>21.97</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" t="n">
-        <v>15.32</v>
+        <v>21.97</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>92</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>44</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>9.029999999999999</v>
       </c>
     </row>
@@ -600,6 +617,3140 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银战略转型股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3690</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6282</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4246</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4184</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2261</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0107</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9585</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8964</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8885</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>870005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7285</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5738</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5279</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012528</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5227</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5094</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝多策略增长A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4454</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4291</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3413</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银战略转型股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006020</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006021</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>872021</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015614</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005373</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>山西证券裕桓一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015613</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华宝多策略增长C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005374</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>57.62</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3385,7 +6536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8377,7 +11528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10371,7 +13522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12973,7 +16124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16487,7 +19638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20025,7 +23176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601009-南京银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>29.72</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>23.76</v>
+        <v>29.72</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D4" t="n">
-        <v>29.6</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="D5" t="n">
-        <v>14.73</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>18.3</v>
+        <v>14.73</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>21.97</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" t="n">
-        <v>15.32</v>
+        <v>21.97</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1756 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>92</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>44</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>9.029999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2792</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4217</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001570</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>48.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>48.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005463</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华多元收益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001580</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005464</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华多元收益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2360,2304 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银战略转型股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9550</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8899</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5504</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5273</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4214</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9603</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8873</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7789</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7665</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6970</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>870005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6833</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5229</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5228</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4094</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001015</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银战略转型股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001016</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>016556</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011849</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得量化价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>872021</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>72.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>72.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003154</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013166</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005326</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014986</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005325</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013167</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3750,7 +7791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6536,7 +10577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11528,7 +15569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13522,7 +17563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16124,7 +20165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19638,7 +23679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23174,1730 +27215,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000991</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信战略转型主题股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>57.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5208</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008895</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>申万菱信量化对冲策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>56.17</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>18.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5609</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>450009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国富中小盘股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>36.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2792</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>070027</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实周期优选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4217</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>240005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝多策略增长</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4137</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>960030</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合H</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3225</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>460002</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3225</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007657</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方红中证竞争力指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2624</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009296</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方誉慧一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>23.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>27.04</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2272</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001403</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商国企改革主题混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1780</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003161</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方安泰混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>24.33</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>21.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1606</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005674</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>诺德消费升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.12</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1232</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000646</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1117</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004951</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>申万菱信价值优利混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0977</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007415</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方致远混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>12.32</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0973</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>515500</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>海富通中证长三角领先ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0961</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001566</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>南方利达灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>24.09</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0873</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009297</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方誉慧一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>27.04</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0863</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003476</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方安颐混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>23.50</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0789</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005059</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>南方安福混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>24.53</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0774</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001335</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>南方利众灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>23.44</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0722</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001570</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>南方利安灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>24.98</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0672</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005041</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>人保研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>84.48</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0547</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008443</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>九泰动态策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>48.99</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0499</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>011473</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>工银瑞信战略转型主题股票C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0344</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005444</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>51.25</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007658</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>东方红中证竞争力指数C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001505</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>南方利众灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>23.44</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0280</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006573</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>84.27</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>007569</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>南方安福混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>24.53</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>008444</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>九泰动态策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>48.99</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>007416</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>南方致远混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>005463</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>银华多元收益定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>001580</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>南方利安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>24.98</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>005901</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001567</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>南方利达灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>24.09</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>002453</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>007827</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>004696</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>东兴量化优享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>002454</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>005042</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>人保研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>84.48</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>005902</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>005464</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>银华多元收益定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>006574</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>84.27</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>